--- a/medicine/Enfance/Super_détectives_!/Super_détectives_!.xlsx
+++ b/medicine/Enfance/Super_détectives_!/Super_détectives_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Super_d%C3%A9tectives_!</t>
+          <t>Super_détectives_!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Super détectives ! (The InBESTigators), est une série télévisée australienne en vingt épisodes d'environ 30 minutes (découpée en quarante segments d'environ 14 minutes) créée par Robyn Butler et Wayne Hope, diffusée entre le 21 juin et le 30 novembre 2019 sur ABC Me et mondialement sur la plateforme Netflix[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Super détectives ! (The InBESTigators), est une série télévisée australienne en vingt épisodes d'environ 30 minutes (découpée en quarante segments d'environ 14 minutes) créée par Robyn Butler et Wayne Hope, diffusée entre le 21 juin et le 30 novembre 2019 sur ABC Me et mondialement sur la plateforme Netflix.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Super_d%C3%A9tectives_!</t>
+          <t>Super_détectives_!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ezra Banks fait la connaissance d'une nouvelle élève de son école, Maudie Miller, alors que l'argent des gâteaux qu'Ava a vendus a disparu. Tous deux enquêtent. Devant ce premier succès, ils créent avec leurs amis Ava et Kyle une agence de détectives.
 À chaque épisode, un ou deux des jeunes détectives raconte une affaire qu'ils ont résolue.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Super_d%C3%A9tectives_!</t>
+          <t>Super_détectives_!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,51 +559,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Anna Cooke (VF : Maryne Bertieaux) : Maudie Miller
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anna Cooke (VF : Maryne Bertieaux) : Maudie Miller
 Aston Droomer : Ezra Banks
 Abby Bergman (VF : Kaycie Chase) : Ava Andrikides
-Jamil Smyth-Secka : Kyle Klimson
-Acteurs secondaires
-James Saunders (VF : Damien Boisseau) : M. Henry McGillick
+Jamil Smyth-Secka : Kyle Klimson</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Super_détectives_!</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Super_d%C3%A9tectives_!</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Saunders (VF : Damien Boisseau) : M. Henry McGillick
 Maria Angelico (en) (VF : Fily Keita) : Miss Tan
 Version française
 Société de doublage : Karina Films
 Direction artistique : Valérie de Vulpian
 Adaptation des dialogues : Margaux Didier
- Source et légende : version française (VF) sur RS Doublage[2]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Super_d%C3%A9tectives_!</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Super_détectives_!</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Super_d%C3%A9tectives_!</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The InBESTigators
 Titre français : Super détectives !
 Création : Robyn Butler et Wayne Hope
@@ -611,34 +669,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Super_d%C3%A9tectives_!</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Super_détectives_!</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Super_d%C3%A9tectives_!</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Première saison (été 2019)
-L'affaire de la curieuse nouvelle / L'affaire des colis volatilisés
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première saison (été 2019)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'affaire de la curieuse nouvelle / L'affaire des colis volatilisés
 L'affaire du système solaire disparu / L'affaire du danseur en détresse
 L'affaire du secret de la soirée pyjama / L'affaire du pari de la plus grande bouche
 L'affaire du pénible canular téléphonique / L'affaire du sportif pas très sport
@@ -647,9 +710,43 @@
 L'affaire du sabotage des sciences physiques / L'affaire de la répétition maudite
 L'affaire du tableau déconcertant / L'affaire du voleur de tortues
 L'affaire de la tasse égarée / L'affaire de la petite sœur triste
-L'affaire du drone désorienté / L'affaire de la lettre mystérieuse
-Deuxième saison (automne 2019)
-L'affaire du concert catastrophe / L'affaire de la saga du foot
+L'affaire du drone désorienté / L'affaire de la lettre mystérieuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Super_détectives_!</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Super_d%C3%A9tectives_!</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième saison (automne 2019)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'affaire du concert catastrophe / L'affaire de la saga du foot
 L'affaire de l'audition bizarre / L'affaire du plagiat
 L'affaire de la devinette / L'affaire de l'enlèvement du robot
 L'affaire des koalas / L'affaire du congélateur trop vide
@@ -662,31 +759,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Super_d%C3%A9tectives_!</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Super_détectives_!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Super_d%C3%A9tectives_!</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ezra Banks
 Enfant qui croit être doué avec la technologie mais en fait c'est à peine s'il sait programmer un simple langage de programmation comme du langage C par exemple, juste les choses de bases. Il est capable de faire un site web (en vrai il utilise juste des applications ou tout est déjà programmé) et propose régulièrement au directeur de son école (qu'il appelle par son prénom, Henry) de refaire le site Internet de l'école, malgré les refus répétés de ce dernier. Pour faire plaisir à sa mère, qui demande que son fils soit stimulé, le directeur lui confie un projet scolaire : être le tuteur de la nouvelle élève, Maudie miller. Les Super détectives épisode 1 : l'Affaire de la curieuse nouvelle. Il adore les livres d'énigmes. Il a une petite sœur qui s'apelle Poppy comme dans poppy play time et la pop!, qui lui coupe la parole (notamment pour lui faire la leçon sur ce que leur mère souhaite d'eux) Les Super détectives épisode 3 : l'Affaire du système solaire disparu.
@@ -699,37 +798,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Super_d%C3%A9tectives_!</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Super_d%C3%A9tectives_!</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Audiences
-Critiques</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
